--- a/data/senegal_calcs_use.xlsx
+++ b/data/senegal_calcs_use.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eideghkmi/Documents/sefasi_transmission/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eidegkni/Documents/sefasi_transmission/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8EA4AB-6A60-0643-8F9B-65A3B66DC1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33393D9-12C5-7942-8267-F888661DD1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="7600" windowWidth="28880" windowHeight="16400" xr2:uid="{D44CFB40-775D-5A47-9A7D-A0950635F68D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{D44CFB40-775D-5A47-9A7D-A0950635F68D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>unit</t>
   </si>
@@ -240,6 +240,27 @@
   </si>
   <si>
     <t>kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP 2: what percentage are thrid gen ceph? </t>
+  </si>
+  <si>
+    <t>STEP 3: what percentage of total (Step 1) are 3GC (step 2)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEP 4: how big is the population? </t>
+  </si>
+  <si>
+    <t>STEP 1: take total AMU (units = DID = DDD per 1,000 inhabitants)</t>
+  </si>
+  <si>
+    <t>STEP 5: calculate how many DDD by multipltying DID (step 3) by total population (Step 4)</t>
+  </si>
+  <si>
+    <t>STEP 7: convert to KG by multiplying by the average DDD for 3GC (step 5) by the average weight per DDD (step 6)</t>
+  </si>
+  <si>
+    <t>STEP 6: how many grams per DDD for 3GC? (from WHO)</t>
   </si>
 </sst>
 </file>
@@ -619,7 +640,308 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14734.722622571775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22726.187987048004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17165.349150463891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-543F-564F-9BBE-3CAE46507CCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="431822608"/>
+        <c:axId val="431824336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="431822608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431824336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431824336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431822608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1175,6 +1497,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1213,13 +2051,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA2AA04-CED1-F67C-2867-738E0CBA446E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1257,7 +2131,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1363,7 +2237,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1505,7 +2379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1515,13 +2389,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86A667FF-1FA2-AD4F-9F1A-90DECD29FEE1}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1541,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1563,8 +2437,11 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1587,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +2487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1632,8 +2509,11 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1656,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1679,7 +2559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1702,8 +2582,11 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1727,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1751,7 +2634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1771,8 +2654,11 @@
         <f>F8*D32</f>
         <v>7357143.0570399994</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1793,7 +2679,7 @@
         <v>11347333.807680001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1814,7 +2700,7 @@
         <v>8570770.727</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1834,8 +2720,11 @@
         <f>F11*I29/1000</f>
         <v>14734.722622571775</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1856,7 +2745,7 @@
         <v>22726.187987048004</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1875,6 +2764,16 @@
       <c r="F16" s="5">
         <f>F13*I29/1000</f>
         <v>17165.349150463891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
